--- a/Reports/Defect Density.xlsx
+++ b/Reports/Defect Density.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Project</t>
   </si>
@@ -57,6 +57,45 @@
   </si>
   <si>
     <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Apache Isis</t>
+  </si>
+  <si>
+    <t>Apache Accumulo</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
+  </si>
+  <si>
+    <t>1.16.2</t>
+  </si>
+  <si>
+    <t>1.16.1</t>
+  </si>
+  <si>
+    <t>1.16.0</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>2.0.0-M3</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Apache Commons Codec</t>
   </si>
 </sst>
 </file>
@@ -111,11 +150,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -398,134 +448,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="18.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D2" s="5">
         <v>36</v>
       </c>
-      <c r="E8">
+      <c r="E2" s="5">
         <v>84486</v>
       </c>
-      <c r="F8">
+      <c r="F2" s="5">
         <v>84.486000000000004</v>
       </c>
-      <c r="G8">
-        <f>D8/F8</f>
+      <c r="G2" s="5">
+        <f>D2/F2</f>
         <v>0.42610610041900432</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D3" s="5">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E3" s="5">
         <v>84520</v>
       </c>
-      <c r="F9">
+      <c r="F3" s="5">
         <v>84.52</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G11" si="0">D9/F9</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G5" si="0">D3/F3</f>
         <v>0.22479886417415998</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
+    <row r="4" spans="1:7">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E4" s="5">
         <v>85865</v>
       </c>
-      <c r="F10">
+      <c r="F4" s="5">
         <v>85.864999999999995</v>
       </c>
-      <c r="G10">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>6.9877132708321202E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
+    <row r="5" spans="1:7">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D5" s="5">
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="E5" s="5">
         <v>111639</v>
       </c>
-      <c r="F11">
+      <c r="F5" s="5">
         <v>111.639</v>
       </c>
-      <c r="G11">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>0.49265937530791215</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5">
+        <v>172732</v>
+      </c>
+      <c r="F7" s="5">
+        <v>172.732</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G11" si="1">D7/F7</f>
+        <v>0.22578329435194405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>174786</v>
+      </c>
+      <c r="F8" s="5">
+        <v>174.786</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8655384298513616E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5">
+        <v>175224</v>
+      </c>
+      <c r="F9" s="5">
+        <v>175.22399999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37666073140665662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5">
+        <v>179233</v>
+      </c>
+      <c r="F10" s="5">
+        <v>179.233</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15622123158123782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>195940</v>
+      </c>
+      <c r="F11" s="5">
+        <v>195.94</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6346840869653978E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5">
+        <v>480220</v>
+      </c>
+      <c r="F13" s="5">
+        <v>480.22</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:G17" si="2">D13/F13</f>
+        <v>2.7070925825663235E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>480748</v>
+      </c>
+      <c r="F14" s="5">
+        <v>480.74799999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2881010425420387E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>480922</v>
+      </c>
+      <c r="F15" s="5">
+        <v>480.92200000000003</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9110749768153671E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5">
+        <v>482531</v>
+      </c>
+      <c r="F16" s="5">
+        <v>482.53100000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14092358832904001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>359622</v>
+      </c>
+      <c r="F17" s="5">
+        <v>359.62200000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6149067632124839E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>17267</v>
+      </c>
+      <c r="F19" s="5">
+        <v>17.266999999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <f>D19/F19</f>
+        <v>1.158278797706608</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>19883</v>
+      </c>
+      <c r="F20" s="5">
+        <v>19.882999999999999</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20:G23" si="3">D20/F20</f>
+        <v>0.30176532716390886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20406</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20.405999999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9005194550622369E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>21237</v>
+      </c>
+      <c r="F22" s="5">
+        <v>21.236999999999998</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.28252578047746857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>22410</v>
+      </c>
+      <c r="F23" s="5">
+        <v>22.41</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13386880856760375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/Defect Density.xlsx
+++ b/Reports/Defect Density.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Project</t>
   </si>
@@ -50,37 +50,25 @@
     <t>Apache Commons Collections</t>
   </si>
   <si>
-    <t>Apache Bigtop</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>1.3.0</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>Apache Cayenne</t>
-  </si>
-  <si>
-    <t>4.1.RC2</t>
-  </si>
-  <si>
-    <t>4.0.2</t>
-  </si>
-  <si>
-    <t>3.1.3</t>
-  </si>
-  <si>
-    <t>4.2.M1</t>
+    <t>Apache Commons Configuration</t>
+  </si>
+  <si>
+    <t>JFreeChart</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>1.0.19</t>
+  </si>
+  <si>
+    <t>1.0.18</t>
+  </si>
+  <si>
+    <t>1.0.17</t>
+  </si>
+  <si>
+    <t>1.0.16</t>
   </si>
 </sst>
 </file>
@@ -457,14 +445,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
   </cols>
@@ -690,93 +678,93 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
-        <v>395</v>
-      </c>
       <c r="E14" s="2">
-        <v>172322</v>
+        <v>88468</v>
       </c>
       <c r="F14" s="2">
-        <v>172.322</v>
+        <v>88.468000000000004</v>
       </c>
       <c r="G14" s="2">
         <f>D14/F14</f>
-        <v>2.2922203781293162</v>
+        <v>0.14694578830763666</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>12</v>
+      <c r="C15" s="2">
+        <v>2.4</v>
       </c>
       <c r="D15" s="2">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
-        <v>185984</v>
+        <v>88851</v>
       </c>
       <c r="F15" s="2">
-        <v>185.98400000000001</v>
+        <v>88.850999999999999</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ref="G15:G18" si="2">D15/F15</f>
-        <v>1.048477288368892</v>
+        <v>6.7528784144241488E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>11</v>
+      <c r="C16" s="2">
+        <v>2.5</v>
       </c>
       <c r="D16" s="2">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>186959</v>
+        <v>89035</v>
       </c>
       <c r="F16" s="2">
-        <v>186.959</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>0.69533961991666626</v>
+        <v>3.3694614477452686E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>10</v>
+      <c r="C17" s="2">
+        <v>2.6</v>
       </c>
       <c r="D17" s="2">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
-        <v>159455</v>
+        <v>89269</v>
       </c>
       <c r="F17" s="2">
-        <v>159.45500000000001</v>
+        <v>89.269000000000005</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>0.72747797184158536</v>
+        <v>0.10081887329308045</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+      <c r="C18" s="2">
+        <v>2.7</v>
       </c>
       <c r="D18" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>167547</v>
+        <v>88749</v>
       </c>
       <c r="F18" s="2">
-        <v>167.547</v>
+        <v>88.748999999999995</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>0.18502271004553947</v>
+        <v>1.1267732594170075E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,77 +772,95 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>226360</v>
+        <v>308748</v>
       </c>
       <c r="F20" s="2">
-        <v>226.36</v>
+        <v>308.74799999999999</v>
       </c>
       <c r="G20" s="2">
         <f>D20/F20</f>
-        <v>4.4177416504682801E-3</v>
+        <v>9.7166621322243383E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>265179</v>
+        <v>311144</v>
       </c>
       <c r="F21" s="2">
-        <v>265.17899999999997</v>
+        <v>311.14400000000001</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" ref="G21:G23" si="3">D21/F21</f>
-        <v>1.1313113029312276E-2</v>
+        <f t="shared" ref="G21:G24" si="3">D21/F21</f>
+        <v>3.5353405497133158E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>290944</v>
+        <v>318874</v>
       </c>
       <c r="F22" s="2">
-        <v>290.94400000000002</v>
+        <v>318.87400000000002</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>2.4059612846458425E-2</v>
+        <v>9.4081047686547029E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>309279</v>
+        <v>319056</v>
       </c>
       <c r="F23" s="2">
-        <v>309.279</v>
+        <v>319.05599999999998</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="3"/>
-        <v>0.12933306173390369</v>
+        <v>9.4027380773281186E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>296835</v>
+      </c>
+      <c r="F24" s="2">
+        <v>296.83499999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3475499856822814E-2</v>
       </c>
     </row>
   </sheetData>
